--- a/RegressionTests/Unit_Test_11/expected_aptrans_anon.602447PRSA_-_Exec_0720.xlsx
+++ b/RegressionTests/Unit_Test_11/expected_aptrans_anon.602447PRSA_-_Exec_0720.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>HERMITAGE MEDICAL CLINIC</t>
   </si>
@@ -126,6 +126,10 @@
     <t>AVC</t>
   </si>
   <si>
+    <t>No Refno or PPS number or payroll number specified
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Kenmare</t>
   </si>
   <si>
@@ -150,7 +154,7 @@
     <t>Redhills</t>
   </si>
   <si>
-    <t>2_Errors_found</t>
+    <t>1_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -165,12 +169,6 @@
     <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
   </si>
   <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
-  </si>
-  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -178,6 +176,126 @@
   </si>
   <si>
     <t>7995.25</t>
+  </si>
+  <si>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1183057</t>
+  </si>
+  <si>
+    <t>244701</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>04/08/2021</t>
+  </si>
+  <si>
+    <t>15/09/2021</t>
+  </si>
+  <si>
+    <t>23,125.44</t>
+  </si>
+  <si>
+    <t>ILIM R McDonald - TV from CWPS</t>
+  </si>
+  <si>
+    <t>1180332</t>
+  </si>
+  <si>
+    <t>Direct Debit</t>
+  </si>
+  <si>
+    <t>31/08/2021</t>
+  </si>
+  <si>
+    <t>103,621.47</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM Aug 2021</t>
+  </si>
+  <si>
+    <t>1180330</t>
+  </si>
+  <si>
+    <t>10,685.27</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>1088112</t>
+  </si>
+  <si>
+    <t>244702</t>
+  </si>
+  <si>
+    <t>01/01/2020</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>19,024.32</t>
+  </si>
+  <si>
+    <t>2019 Charges</t>
+  </si>
+  <si>
+    <t>1033048</t>
+  </si>
+  <si>
+    <t>01/01/2019</t>
+  </si>
+  <si>
+    <t>13,504.40</t>
+  </si>
+  <si>
+    <t>yearly fees 2019</t>
+  </si>
+  <si>
+    <t>970204</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>10,930.40</t>
+  </si>
+  <si>
+    <t>invoiced fees 01/01/2018- 31/12/2018</t>
   </si>
 </sst>
 </file>
@@ -189,7 +307,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -216,8 +334,23 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -305,7 +438,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -318,18 +451,19 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,7 +1089,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="3"/>
+    <col min="1" max="1" width="47.5" style="3"/>
     <col min="2" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
@@ -976,13 +1110,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25">
-      <c r="A2" s="6"/>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3">
         <v>1454.0</v>
@@ -991,13 +1127,15 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3">
         <v>1694.0</v>
@@ -1006,13 +1144,15 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3">
         <v>1969.0</v>
@@ -1021,13 +1161,15 @@
         <v>650.25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3">
         <v>2228.0</v>
@@ -1047,7 +1189,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1060,32 +1202,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1104,7 +1238,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="3"/>
+    <col min="1" max="1" width="17.75" style="3"/>
+    <col min="2" max="2" width="14.125" style="3"/>
+    <col min="3" max="3" width="8.25" style="3"/>
+    <col min="4" max="4" width="15.75" style="3"/>
+    <col min="5" max="5" width="13.25" style="3"/>
+    <col min="6" max="6" width="12.625" style="3"/>
+    <col min="7" max="7" width="15.75" style="3"/>
+    <col min="8" max="8" width="10.5" style="3"/>
+    <col min="9" max="9" width="31.5" style="3"/>
+    <col min="10" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
@@ -1125,12 +1268,12 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
@@ -1140,7 +1283,210 @@
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="9" t="s">
         <v>52</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_11/expected_aptrans_anon.602447PRSA_-_Exec_0720.xlsx
+++ b/RegressionTests/Unit_Test_11/expected_aptrans_anon.602447PRSA_-_Exec_0720.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>HERMITAGE MEDICAL CLINIC</t>
   </si>
@@ -126,10 +126,6 @@
     <t>AVC</t>
   </si>
   <si>
-    <t>No Refno or PPS number or payroll number specified
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Kenmare</t>
   </si>
   <si>
@@ -154,7 +150,7 @@
     <t>Redhills</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
+    <t>2_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -169,6 +165,12 @@
     <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
   </si>
   <si>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
+  </si>
+  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -176,126 +178,6 @@
   </si>
   <si>
     <t>7995.25</t>
-  </si>
-  <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1183057</t>
-  </si>
-  <si>
-    <t>244701</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>04/08/2021</t>
-  </si>
-  <si>
-    <t>15/09/2021</t>
-  </si>
-  <si>
-    <t>23,125.44</t>
-  </si>
-  <si>
-    <t>ILIM R McDonald - TV from CWPS</t>
-  </si>
-  <si>
-    <t>1180332</t>
-  </si>
-  <si>
-    <t>Direct Debit</t>
-  </si>
-  <si>
-    <t>31/08/2021</t>
-  </si>
-  <si>
-    <t>103,621.47</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>ILIM Aug 2021</t>
-  </si>
-  <si>
-    <t>1180330</t>
-  </si>
-  <si>
-    <t>10,685.27</t>
-  </si>
-  <si>
-    <t>Annually</t>
-  </si>
-  <si>
-    <t>1088112</t>
-  </si>
-  <si>
-    <t>244702</t>
-  </si>
-  <si>
-    <t>01/01/2020</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>19,024.32</t>
-  </si>
-  <si>
-    <t>2019 Charges</t>
-  </si>
-  <si>
-    <t>1033048</t>
-  </si>
-  <si>
-    <t>01/01/2019</t>
-  </si>
-  <si>
-    <t>13,504.40</t>
-  </si>
-  <si>
-    <t>yearly fees 2019</t>
-  </si>
-  <si>
-    <t>970204</t>
-  </si>
-  <si>
-    <t>01/01/2018</t>
-  </si>
-  <si>
-    <t>10,930.40</t>
-  </si>
-  <si>
-    <t>invoiced fees 01/01/2018- 31/12/2018</t>
   </si>
 </sst>
 </file>
@@ -307,7 +189,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -334,23 +216,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -438,7 +305,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -451,19 +318,18 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1089,7 +955,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="47.5" style="3"/>
+    <col min="1" max="1" width="16.25" style="3"/>
     <col min="2" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
@@ -1110,15 +976,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" ht="14.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D2" s="3">
         <v>1454.0</v>
@@ -1127,15 +991,13 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="6" t="s">
-        <v>35</v>
-      </c>
+    <row r="3" spans="1:5" ht="14.25">
+      <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D3" s="3">
         <v>1694.0</v>
@@ -1144,15 +1006,13 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="6" t="s">
-        <v>35</v>
-      </c>
+    <row r="4" spans="1:5" ht="14.25">
+      <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="D4" s="3">
         <v>1969.0</v>
@@ -1161,15 +1021,13 @@
         <v>650.25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="6" t="s">
-        <v>35</v>
-      </c>
+    <row r="5" spans="1:5" ht="14.25">
+      <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D5" s="3">
         <v>2228.0</v>
@@ -1189,7 +1047,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1202,24 +1060,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1230,7 +1096,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1238,16 +1104,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="3"/>
-    <col min="2" max="2" width="14.125" style="3"/>
-    <col min="3" max="3" width="8.25" style="3"/>
-    <col min="4" max="4" width="15.75" style="3"/>
-    <col min="5" max="5" width="13.25" style="3"/>
-    <col min="6" max="6" width="12.625" style="3"/>
-    <col min="7" max="7" width="15.75" style="3"/>
-    <col min="8" max="8" width="10.5" style="3"/>
-    <col min="9" max="9" width="31.5" style="3"/>
-    <col min="10" max="16384" width="9.25" style="3"/>
+    <col min="1" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
@@ -1268,12 +1125,12 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
@@ -1283,210 +1140,7 @@
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_11/expected_aptrans_anon.602447PRSA_-_Exec_0720.xlsx
+++ b/RegressionTests/Unit_Test_11/expected_aptrans_anon.602447PRSA_-_Exec_0720.xlsx
@@ -391,14 +391,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -411,6 +403,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -438,7 +438,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -452,11 +452,14 @@
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1128,7 +1131,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1145,7 +1148,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1162,7 +1165,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1201,16 +1204,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1287,31 +1290,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="10" t="s">
         <v>60</v>
       </c>
     </row>

--- a/RegressionTests/Unit_Test_11/expected_aptrans_anon.602447PRSA_-_Exec_0720.xlsx
+++ b/RegressionTests/Unit_Test_11/expected_aptrans_anon.602447PRSA_-_Exec_0720.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>HERMITAGE MEDICAL CLINIC</t>
   </si>
@@ -126,10 +126,6 @@
     <t>AVC</t>
   </si>
   <si>
-    <t>No Refno or PPS number or payroll number specified
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Kenmare</t>
   </si>
   <si>
@@ -154,7 +150,7 @@
     <t>Redhills</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
+    <t>2_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -169,6 +165,12 @@
     <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
   </si>
   <si>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
+  </si>
+  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -176,126 +178,6 @@
   </si>
   <si>
     <t>7995.25</t>
-  </si>
-  <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1183057</t>
-  </si>
-  <si>
-    <t>244701</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>04/08/2021</t>
-  </si>
-  <si>
-    <t>15/09/2021</t>
-  </si>
-  <si>
-    <t>23,125.44</t>
-  </si>
-  <si>
-    <t>ILIM R McDonald - TV from CWPS</t>
-  </si>
-  <si>
-    <t>1180332</t>
-  </si>
-  <si>
-    <t>Direct Debit</t>
-  </si>
-  <si>
-    <t>31/08/2021</t>
-  </si>
-  <si>
-    <t>103,621.47</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>ILIM Aug 2021</t>
-  </si>
-  <si>
-    <t>1180330</t>
-  </si>
-  <si>
-    <t>10,685.27</t>
-  </si>
-  <si>
-    <t>Annually</t>
-  </si>
-  <si>
-    <t>1088112</t>
-  </si>
-  <si>
-    <t>244702</t>
-  </si>
-  <si>
-    <t>01/01/2020</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>19,024.32</t>
-  </si>
-  <si>
-    <t>2019 Charges</t>
-  </si>
-  <si>
-    <t>1033048</t>
-  </si>
-  <si>
-    <t>01/01/2019</t>
-  </si>
-  <si>
-    <t>13,504.40</t>
-  </si>
-  <si>
-    <t>yearly fees 2019</t>
-  </si>
-  <si>
-    <t>970204</t>
-  </si>
-  <si>
-    <t>01/01/2018</t>
-  </si>
-  <si>
-    <t>10,930.40</t>
-  </si>
-  <si>
-    <t>invoiced fees 01/01/2018- 31/12/2018</t>
   </si>
 </sst>
 </file>
@@ -307,7 +189,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -334,23 +216,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -360,6 +227,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -438,7 +313,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -451,22 +326,21 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,11 +966,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="47.5" style="3"/>
+    <col min="1" max="1" width="16.25" style="3"/>
     <col min="2" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5" ht="30">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1113,15 +987,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" ht="14.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D2" s="3">
         <v>1454.0</v>
@@ -1130,15 +1002,13 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="7" t="s">
-        <v>35</v>
-      </c>
+    <row r="3" spans="1:5" ht="14.25">
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D3" s="3">
         <v>1694.0</v>
@@ -1147,15 +1017,13 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="7" t="s">
-        <v>35</v>
-      </c>
+    <row r="4" spans="1:5" ht="14.25">
+      <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="D4" s="3">
         <v>1969.0</v>
@@ -1164,15 +1032,13 @@
         <v>650.25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="7" t="s">
-        <v>35</v>
-      </c>
+    <row r="5" spans="1:5" ht="14.25">
+      <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D5" s="3">
         <v>2228.0</v>
@@ -1192,7 +1058,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1205,24 +1071,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1241,16 +1115,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="3"/>
-    <col min="2" max="2" width="14.125" style="3"/>
-    <col min="3" max="3" width="8.25" style="3"/>
-    <col min="4" max="4" width="15.75" style="3"/>
-    <col min="5" max="5" width="13.25" style="3"/>
-    <col min="6" max="6" width="12.625" style="3"/>
-    <col min="7" max="7" width="15.75" style="3"/>
-    <col min="8" max="8" width="10.5" style="3"/>
-    <col min="9" max="9" width="31.5" style="3"/>
-    <col min="10" max="16384" width="9.25" style="3"/>
+    <col min="1" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
@@ -1271,12 +1136,12 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
@@ -1286,210 +1151,7 @@
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
